--- a/static/wa-code_upload_example.xlsx
+++ b/static/wa-code_upload_example.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t xml:space="preserve">wa_code</t>
   </si>
@@ -149,14 +149,49 @@
   </si>
   <si>
     <t xml:space="preserve">SRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA4778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Wolf-w14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA4779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf-w10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA4780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poor DNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -216,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -224,6 +259,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -254,7 +296,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,6 +314,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,10 +363,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3:BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -305,9 +375,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.08"/>
@@ -497,6 +567,271 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <v>108</v>
+      </c>
+      <c r="N2" s="8" t="n">
+        <v>122</v>
+      </c>
+      <c r="O2" s="8" t="n">
+        <v>133</v>
+      </c>
+      <c r="P2" s="8" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="R2" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="T2" s="8" t="n">
+        <v>96</v>
+      </c>
+      <c r="U2" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="V2" s="8" t="n">
+        <v>180</v>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>141</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>141</v>
+      </c>
+      <c r="Y2" s="8" t="n">
+        <v>152</v>
+      </c>
+      <c r="Z2" s="8" t="n">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="AB2" s="8" t="n">
+        <v>269</v>
+      </c>
+      <c r="AC2" s="8" t="n">
+        <v>193</v>
+      </c>
+      <c r="AD2" s="8" t="n">
+        <v>193</v>
+      </c>
+      <c r="AE2" s="8" t="n">
+        <v>102</v>
+      </c>
+      <c r="AF2" s="8" t="n">
+        <v>102</v>
+      </c>
+      <c r="AG2" s="8" t="n">
+        <v>143</v>
+      </c>
+      <c r="AH2" s="8" t="n">
+        <v>145</v>
+      </c>
+      <c r="AI2" s="8" t="n">
+        <v>206</v>
+      </c>
+      <c r="AJ2" s="8" t="n">
+        <v>206</v>
+      </c>
+      <c r="AK2" s="8" t="n">
+        <v>192</v>
+      </c>
+      <c r="AL2" s="8" t="n">
+        <v>196</v>
+      </c>
+      <c r="AM2" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="AO2" s="8" t="n">
+        <v>119</v>
+      </c>
+      <c r="AP2" s="8" t="n">
+        <v>119</v>
+      </c>
+      <c r="AQ2" s="8" t="n">
+        <v>259</v>
+      </c>
+      <c r="AR2" s="8" t="n">
+        <v>275</v>
+      </c>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB2" s="8" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>108</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>133</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>117</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>121</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>168</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>168</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
